--- a/일용직 지명원_NewVersion.xlsx
+++ b/일용직 지명원_NewVersion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simsungwoo/Desktop/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21055B1-C926-244B-96A5-BC7E354085F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290EE4D8-1291-1743-A558-3D905369BD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -2959,8 +2959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D194" sqref="D194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3013,10 +3013,6 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
@@ -3040,10 +3036,6 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
@@ -3070,10 +3062,6 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
@@ -3094,10 +3082,6 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
@@ -3115,10 +3099,6 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
@@ -3145,10 +3125,6 @@
       <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E7" t="s">
         <v>37</v>
       </c>
@@ -3172,10 +3148,6 @@
       <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E8" t="s">
         <v>42</v>
       </c>
@@ -3199,10 +3171,6 @@
       <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E9" t="s">
         <v>47</v>
       </c>
@@ -3229,10 +3197,6 @@
       <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E10" t="s">
         <v>52</v>
       </c>
@@ -3256,10 +3220,6 @@
       <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E11" t="s">
         <v>58</v>
       </c>
@@ -3282,10 +3242,6 @@
       </c>
       <c r="C12" t="s">
         <v>62</v>
-      </c>
-      <c r="D12" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -3307,10 +3263,6 @@
       <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="D13" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
@@ -3334,10 +3286,6 @@
       <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="D14" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E14" t="s">
         <v>71</v>
       </c>
@@ -3358,10 +3306,6 @@
       <c r="B15" t="s">
         <v>74</v>
       </c>
-      <c r="D15" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E15" t="s">
         <v>75</v>
       </c>
@@ -3379,10 +3323,6 @@
       <c r="C16" t="s">
         <v>78</v>
       </c>
-      <c r="D16" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E16" t="s">
         <v>79</v>
       </c>
@@ -3412,10 +3352,6 @@
       <c r="C17" t="s">
         <v>84</v>
       </c>
-      <c r="D17" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E17" t="s">
         <v>85</v>
       </c>
@@ -3442,10 +3378,6 @@
       <c r="C18" t="s">
         <v>90</v>
       </c>
-      <c r="D18" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E18" t="s">
         <v>91</v>
       </c>
@@ -3463,10 +3395,6 @@
       <c r="C19" t="s">
         <v>93</v>
       </c>
-      <c r="D19" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E19" t="s">
         <v>94</v>
       </c>
@@ -3493,10 +3421,6 @@
       <c r="C20" t="s">
         <v>99</v>
       </c>
-      <c r="D20" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E20" t="s">
         <v>100</v>
       </c>
@@ -3520,10 +3444,6 @@
       <c r="C21" t="s">
         <v>104</v>
       </c>
-      <c r="D21" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E21" t="s">
         <v>105</v>
       </c>
@@ -3547,10 +3467,6 @@
       <c r="C22" t="s">
         <v>109</v>
       </c>
-      <c r="D22" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E22" t="s">
         <v>110</v>
       </c>
@@ -3577,10 +3493,6 @@
       <c r="C23" t="s">
         <v>114</v>
       </c>
-      <c r="D23" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E23" t="s">
         <v>115</v>
       </c>
@@ -3607,10 +3519,6 @@
       <c r="C24" t="s">
         <v>119</v>
       </c>
-      <c r="D24" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E24" t="s">
         <v>120</v>
       </c>
@@ -3634,10 +3542,6 @@
       <c r="C25" t="s">
         <v>124</v>
       </c>
-      <c r="D25" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E25" t="s">
         <v>125</v>
       </c>
@@ -3664,10 +3568,6 @@
       <c r="C26" t="s">
         <v>129</v>
       </c>
-      <c r="D26" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E26" t="s">
         <v>130</v>
       </c>
@@ -3694,10 +3594,6 @@
       <c r="C27" t="s">
         <v>135</v>
       </c>
-      <c r="D27" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E27" t="s">
         <v>136</v>
       </c>
@@ -3724,10 +3620,6 @@
       <c r="C28" t="s">
         <v>140</v>
       </c>
-      <c r="D28" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E28" t="s">
         <v>141</v>
       </c>
@@ -3754,10 +3646,6 @@
       <c r="C29" t="s">
         <v>145</v>
       </c>
-      <c r="D29" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E29" t="s">
         <v>146</v>
       </c>
@@ -3787,10 +3675,6 @@
       <c r="C30" t="s">
         <v>151</v>
       </c>
-      <c r="D30" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F30" t="s">
         <v>11</v>
       </c>
@@ -3811,10 +3695,6 @@
       <c r="C31" t="s">
         <v>155</v>
       </c>
-      <c r="D31" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E31" t="s">
         <v>156</v>
       </c>
@@ -3838,10 +3718,6 @@
       <c r="C32" t="s">
         <v>160</v>
       </c>
-      <c r="D32" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E32" t="s">
         <v>161</v>
       </c>
@@ -3865,10 +3741,6 @@
       <c r="C33" t="s">
         <v>165</v>
       </c>
-      <c r="D33" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E33" t="s">
         <v>166</v>
       </c>
@@ -3892,10 +3764,6 @@
       <c r="C34" t="s">
         <v>170</v>
       </c>
-      <c r="D34" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F34" t="s">
         <v>11</v>
       </c>
@@ -3919,10 +3787,6 @@
       <c r="C35" t="s">
         <v>174</v>
       </c>
-      <c r="D35" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E35" t="s">
         <v>175</v>
       </c>
@@ -3946,10 +3810,6 @@
       <c r="C36" t="s">
         <v>179</v>
       </c>
-      <c r="D36" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E36" t="s">
         <v>180</v>
       </c>
@@ -3976,10 +3836,6 @@
       <c r="C37" t="s">
         <v>184</v>
       </c>
-      <c r="D37" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E37" t="s">
         <v>185</v>
       </c>
@@ -4003,10 +3859,6 @@
       <c r="C38" t="s">
         <v>189</v>
       </c>
-      <c r="D38" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E38" t="s">
         <v>190</v>
       </c>
@@ -4030,10 +3882,6 @@
       <c r="C39" t="s">
         <v>195</v>
       </c>
-      <c r="D39" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F39" t="s">
         <v>11</v>
       </c>
@@ -4054,10 +3902,6 @@
       <c r="C40" t="s">
         <v>199</v>
       </c>
-      <c r="D40" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E40" t="s">
         <v>200</v>
       </c>
@@ -4084,10 +3928,6 @@
       <c r="C41" t="s">
         <v>204</v>
       </c>
-      <c r="D41" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E41" t="s">
         <v>205</v>
       </c>
@@ -4114,10 +3954,6 @@
       <c r="C42" t="s">
         <v>209</v>
       </c>
-      <c r="D42" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E42" t="s">
         <v>210</v>
       </c>
@@ -4141,10 +3977,6 @@
       <c r="C43" t="s">
         <v>214</v>
       </c>
-      <c r="D43" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E43" t="s">
         <v>215</v>
       </c>
@@ -4168,10 +4000,6 @@
       <c r="C44" t="s">
         <v>219</v>
       </c>
-      <c r="D44" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E44" t="s">
         <v>220</v>
       </c>
@@ -4198,10 +4026,6 @@
       <c r="C45" t="s">
         <v>224</v>
       </c>
-      <c r="D45" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E45" t="s">
         <v>225</v>
       </c>
@@ -4228,10 +4052,6 @@
       <c r="C46" t="s">
         <v>229</v>
       </c>
-      <c r="D46" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F46" t="s">
         <v>11</v>
       </c>
@@ -4252,10 +4072,6 @@
       <c r="C47" t="s">
         <v>233</v>
       </c>
-      <c r="D47" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F47" t="s">
         <v>11</v>
       </c>
@@ -4282,10 +4098,6 @@
       <c r="C48" t="s">
         <v>237</v>
       </c>
-      <c r="D48" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E48" t="s">
         <v>238</v>
       </c>
@@ -4309,10 +4121,6 @@
       <c r="C49" t="s">
         <v>242</v>
       </c>
-      <c r="D49" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F49" t="s">
         <v>243</v>
       </c>
@@ -4333,10 +4141,6 @@
       <c r="C50" t="s">
         <v>247</v>
       </c>
-      <c r="D50" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E50" t="s">
         <v>248</v>
       </c>
@@ -4363,10 +4167,6 @@
       <c r="C51" t="s">
         <v>252</v>
       </c>
-      <c r="D51" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E51" t="s">
         <v>253</v>
       </c>
@@ -4393,10 +4193,6 @@
       <c r="C52" t="s">
         <v>258</v>
       </c>
-      <c r="D52" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F52" t="s">
         <v>11</v>
       </c>
@@ -4414,10 +4210,6 @@
       <c r="B53" t="s">
         <v>261</v>
       </c>
-      <c r="D53" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E53" t="s">
         <v>262</v>
       </c>
@@ -4435,10 +4227,6 @@
       <c r="C54" t="s">
         <v>264</v>
       </c>
-      <c r="D54" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E54" t="s">
         <v>265</v>
       </c>
@@ -4462,10 +4250,6 @@
       <c r="C55" t="s">
         <v>269</v>
       </c>
-      <c r="D55" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E55" t="s">
         <v>270</v>
       </c>
@@ -4489,10 +4273,6 @@
       <c r="C56" t="s">
         <v>274</v>
       </c>
-      <c r="D56" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E56" t="s">
         <v>275</v>
       </c>
@@ -4516,10 +4296,6 @@
       <c r="C57" t="s">
         <v>279</v>
       </c>
-      <c r="D57" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E57" t="s">
         <v>280</v>
       </c>
@@ -4543,10 +4319,6 @@
       <c r="C58" t="s">
         <v>284</v>
       </c>
-      <c r="D58" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E58" t="s">
         <v>285</v>
       </c>
@@ -4573,10 +4345,6 @@
       <c r="C59" t="s">
         <v>289</v>
       </c>
-      <c r="D59" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F59" t="s">
         <v>11</v>
       </c>
@@ -4600,10 +4368,6 @@
       <c r="C60" t="s">
         <v>293</v>
       </c>
-      <c r="D60" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F60" t="s">
         <v>11</v>
       </c>
@@ -4624,10 +4388,6 @@
       <c r="C61" t="s">
         <v>297</v>
       </c>
-      <c r="D61" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E61" t="s">
         <v>298</v>
       </c>
@@ -4654,10 +4414,6 @@
       <c r="C62" t="s">
         <v>302</v>
       </c>
-      <c r="D62" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E62" t="s">
         <v>303</v>
       </c>
@@ -4681,10 +4437,6 @@
       <c r="C63" t="s">
         <v>307</v>
       </c>
-      <c r="D63" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E63" t="s">
         <v>308</v>
       </c>
@@ -4711,10 +4463,6 @@
       <c r="C64" t="s">
         <v>313</v>
       </c>
-      <c r="D64" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E64" t="s">
         <v>314</v>
       </c>
@@ -4741,10 +4489,6 @@
       <c r="C65" t="s">
         <v>318</v>
       </c>
-      <c r="D65" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F65" t="s">
         <v>11</v>
       </c>
@@ -4765,10 +4509,6 @@
       <c r="C66" t="s">
         <v>322</v>
       </c>
-      <c r="D66" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E66" t="s">
         <v>323</v>
       </c>
@@ -4795,10 +4535,6 @@
       <c r="C67" t="s">
         <v>327</v>
       </c>
-      <c r="D67" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E67" t="s">
         <v>328</v>
       </c>
@@ -4825,10 +4561,6 @@
       <c r="C68" t="s">
         <v>332</v>
       </c>
-      <c r="D68" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F68" t="s">
         <v>333</v>
       </c>
@@ -4849,10 +4581,6 @@
       <c r="C69" t="s">
         <v>337</v>
       </c>
-      <c r="D69" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E69" t="s">
         <v>338</v>
       </c>
@@ -4876,10 +4604,6 @@
       <c r="C70" t="s">
         <v>342</v>
       </c>
-      <c r="D70" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F70" t="s">
         <v>11</v>
       </c>
@@ -4900,10 +4624,6 @@
       <c r="C71" t="s">
         <v>346</v>
       </c>
-      <c r="D71" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E71" t="s">
         <v>347</v>
       </c>
@@ -4927,10 +4647,6 @@
       <c r="C72" t="s">
         <v>351</v>
       </c>
-      <c r="D72" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F72" t="s">
         <v>11</v>
       </c>
@@ -4954,10 +4670,6 @@
       <c r="C73" t="s">
         <v>355</v>
       </c>
-      <c r="D73" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E73" t="s">
         <v>356</v>
       </c>
@@ -4981,10 +4693,6 @@
       <c r="C74" t="s">
         <v>360</v>
       </c>
-      <c r="D74" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E74" t="s">
         <v>361</v>
       </c>
@@ -5008,10 +4716,6 @@
       <c r="C75" t="s">
         <v>365</v>
       </c>
-      <c r="D75" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E75" t="s">
         <v>366</v>
       </c>
@@ -5035,10 +4739,6 @@
       <c r="C76" t="s">
         <v>370</v>
       </c>
-      <c r="D76" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E76" t="s">
         <v>371</v>
       </c>
@@ -5065,10 +4765,6 @@
       <c r="C77" t="s">
         <v>375</v>
       </c>
-      <c r="D77" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E77" t="s">
         <v>376</v>
       </c>
@@ -5095,10 +4791,6 @@
       <c r="C78" t="s">
         <v>380</v>
       </c>
-      <c r="D78" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E78" t="s">
         <v>381</v>
       </c>
@@ -5125,10 +4817,6 @@
       <c r="C79" t="s">
         <v>385</v>
       </c>
-      <c r="D79" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E79" t="s">
         <v>386</v>
       </c>
@@ -5152,10 +4840,6 @@
       <c r="C80" t="s">
         <v>390</v>
       </c>
-      <c r="D80" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E80" t="s">
         <v>391</v>
       </c>
@@ -5182,10 +4866,6 @@
       <c r="C81" t="s">
         <v>395</v>
       </c>
-      <c r="D81" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F81" t="s">
         <v>11</v>
       </c>
@@ -5209,10 +4889,6 @@
       <c r="C82" t="s">
         <v>399</v>
       </c>
-      <c r="D82" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="H82" t="s">
         <v>400</v>
       </c>
@@ -5227,10 +4903,6 @@
       <c r="C83" t="s">
         <v>402</v>
       </c>
-      <c r="D83" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="H83" t="s">
         <v>403</v>
       </c>
@@ -5245,10 +4917,6 @@
       <c r="C84" t="s">
         <v>405</v>
       </c>
-      <c r="D84" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E84" t="s">
         <v>47</v>
       </c>
@@ -5272,10 +4940,6 @@
       <c r="C85" t="s">
         <v>409</v>
       </c>
-      <c r="D85" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F85" t="s">
         <v>11</v>
       </c>
@@ -5299,10 +4963,6 @@
       <c r="C86" t="s">
         <v>413</v>
       </c>
-      <c r="D86" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E86" t="s">
         <v>414</v>
       </c>
@@ -5326,10 +4986,6 @@
       <c r="C87" t="s">
         <v>418</v>
       </c>
-      <c r="D87" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E87" t="s">
         <v>419</v>
       </c>
@@ -5353,10 +5009,6 @@
       <c r="C88" t="s">
         <v>423</v>
       </c>
-      <c r="D88" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E88" t="s">
         <v>424</v>
       </c>
@@ -5380,10 +5032,6 @@
       <c r="C89" t="s">
         <v>427</v>
       </c>
-      <c r="D89" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F89" t="s">
         <v>11</v>
       </c>
@@ -5407,10 +5055,6 @@
       <c r="C90" t="s">
         <v>431</v>
       </c>
-      <c r="D90" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F90" t="s">
         <v>11</v>
       </c>
@@ -5431,10 +5075,6 @@
       <c r="C91" t="s">
         <v>435</v>
       </c>
-      <c r="D91" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E91" t="s">
         <v>436</v>
       </c>
@@ -5458,10 +5098,6 @@
       <c r="C92" t="s">
         <v>440</v>
       </c>
-      <c r="D92" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E92" t="s">
         <v>441</v>
       </c>
@@ -5485,10 +5121,6 @@
       <c r="C93" t="s">
         <v>445</v>
       </c>
-      <c r="D93" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F93" t="s">
         <v>11</v>
       </c>
@@ -5509,10 +5141,6 @@
       <c r="C94" t="s">
         <v>449</v>
       </c>
-      <c r="D94" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="H94" t="s">
         <v>450</v>
       </c>
@@ -5527,10 +5155,6 @@
       <c r="C95" t="s">
         <v>452</v>
       </c>
-      <c r="D95" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="H95" t="s">
         <v>453</v>
       </c>
@@ -5545,10 +5169,6 @@
       <c r="C96" t="s">
         <v>455</v>
       </c>
-      <c r="D96" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F96" t="s">
         <v>11</v>
       </c>
@@ -5569,10 +5189,6 @@
       <c r="C97" t="s">
         <v>459</v>
       </c>
-      <c r="D97" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F97" t="s">
         <v>191</v>
       </c>
@@ -5593,10 +5209,6 @@
       <c r="C98" t="s">
         <v>463</v>
       </c>
-      <c r="D98" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F98" t="s">
         <v>11</v>
       </c>
@@ -5617,10 +5229,6 @@
       <c r="C99" t="s">
         <v>467</v>
       </c>
-      <c r="D99" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E99" t="s">
         <v>468</v>
       </c>
@@ -5644,10 +5252,6 @@
       <c r="C100" t="s">
         <v>472</v>
       </c>
-      <c r="D100" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E100" t="s">
         <v>473</v>
       </c>
@@ -5671,10 +5275,6 @@
       <c r="C101" t="s">
         <v>477</v>
       </c>
-      <c r="D101" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E101" t="s">
         <v>478</v>
       </c>
@@ -5692,10 +5292,6 @@
       <c r="C102" t="s">
         <v>481</v>
       </c>
-      <c r="D102" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F102" t="s">
         <v>11</v>
       </c>
@@ -5716,10 +5312,6 @@
       <c r="C103" t="s">
         <v>485</v>
       </c>
-      <c r="D103" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E103" t="s">
         <v>486</v>
       </c>
@@ -5743,10 +5335,6 @@
       <c r="C104" t="s">
         <v>491</v>
       </c>
-      <c r="D104" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E104" t="s">
         <v>492</v>
       </c>
@@ -5767,10 +5355,6 @@
       <c r="B105" t="s">
         <v>495</v>
       </c>
-      <c r="D105" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E105" t="s">
         <v>496</v>
       </c>
@@ -5791,10 +5375,6 @@
       <c r="C106" t="s">
         <v>499</v>
       </c>
-      <c r="D106" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E106" t="s">
         <v>500</v>
       </c>
@@ -5818,10 +5398,6 @@
       <c r="C107" t="s">
         <v>504</v>
       </c>
-      <c r="D107" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E107" t="s">
         <v>505</v>
       </c>
@@ -5845,10 +5421,6 @@
       <c r="C108" t="s">
         <v>509</v>
       </c>
-      <c r="D108" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E108" t="s">
         <v>510</v>
       </c>
@@ -5872,10 +5444,6 @@
       <c r="C109" t="s">
         <v>514</v>
       </c>
-      <c r="D109" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F109" t="s">
         <v>11</v>
       </c>
@@ -5896,10 +5464,6 @@
       <c r="C110" t="s">
         <v>518</v>
       </c>
-      <c r="D110" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E110" t="s">
         <v>519</v>
       </c>
@@ -5923,10 +5487,6 @@
       <c r="C111" t="s">
         <v>524</v>
       </c>
-      <c r="D111" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E111" t="s">
         <v>525</v>
       </c>
@@ -5950,10 +5510,6 @@
       <c r="C112" t="s">
         <v>529</v>
       </c>
-      <c r="D112" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E112" t="s">
         <v>530</v>
       </c>
@@ -5977,10 +5533,6 @@
       <c r="C113" t="s">
         <v>534</v>
       </c>
-      <c r="D113" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E113" t="s">
         <v>535</v>
       </c>
@@ -6004,10 +5556,6 @@
       <c r="C114" t="s">
         <v>539</v>
       </c>
-      <c r="D114" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E114" t="s">
         <v>540</v>
       </c>
@@ -6031,10 +5579,6 @@
       <c r="C115" t="s">
         <v>544</v>
       </c>
-      <c r="D115" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E115" t="s">
         <v>545</v>
       </c>
@@ -6058,10 +5602,6 @@
       <c r="C116" t="s">
         <v>549</v>
       </c>
-      <c r="D116" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="H116" t="s">
         <v>550</v>
       </c>
@@ -6076,10 +5616,6 @@
       <c r="C117" t="s">
         <v>552</v>
       </c>
-      <c r="D117" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E117" t="s">
         <v>553</v>
       </c>
@@ -6103,10 +5639,6 @@
       <c r="C118" t="s">
         <v>558</v>
       </c>
-      <c r="D118" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E118" t="s">
         <v>559</v>
       </c>
@@ -6130,10 +5662,6 @@
       <c r="C119" t="s">
         <v>563</v>
       </c>
-      <c r="D119" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E119" t="s">
         <v>564</v>
       </c>
@@ -6157,10 +5685,6 @@
       <c r="C120" t="s">
         <v>568</v>
       </c>
-      <c r="D120" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E120" t="s">
         <v>569</v>
       </c>
@@ -6187,10 +5711,6 @@
       <c r="C121" t="s">
         <v>574</v>
       </c>
-      <c r="D121" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F121" t="s">
         <v>11</v>
       </c>
@@ -6208,10 +5728,6 @@
       <c r="B122" t="s">
         <v>577</v>
       </c>
-      <c r="D122" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F122" t="s">
         <v>11</v>
       </c>
@@ -6226,10 +5742,6 @@
       <c r="B123" t="s">
         <v>579</v>
       </c>
-      <c r="D123" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E123" t="s">
         <v>581</v>
       </c>
@@ -6256,10 +5768,6 @@
       <c r="B124" t="s">
         <v>585</v>
       </c>
-      <c r="D124" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E124" t="s">
         <v>587</v>
       </c>
@@ -6289,10 +5797,6 @@
       <c r="C125" t="s">
         <v>854</v>
       </c>
-      <c r="D125" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F125" t="s">
         <v>11</v>
       </c>
@@ -6316,10 +5820,6 @@
       <c r="C126" t="s">
         <v>853</v>
       </c>
-      <c r="D126" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E126" t="s">
         <v>596</v>
       </c>
@@ -6346,10 +5846,6 @@
       <c r="C127" t="s">
         <v>601</v>
       </c>
-      <c r="D127" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E127" t="s">
         <v>602</v>
       </c>
@@ -6376,10 +5872,6 @@
       <c r="C128" t="s">
         <v>607</v>
       </c>
-      <c r="D128" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E128" t="s">
         <v>608</v>
       </c>
@@ -6406,10 +5898,6 @@
       <c r="C129" t="s">
         <v>611</v>
       </c>
-      <c r="D129" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E129" t="s">
         <v>612</v>
       </c>
@@ -6436,10 +5924,6 @@
       <c r="C130" t="s">
         <v>616</v>
       </c>
-      <c r="D130" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E130" t="s">
         <v>617</v>
       </c>
@@ -6466,10 +5950,6 @@
       <c r="C131" t="s">
         <v>621</v>
       </c>
-      <c r="D131" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E131" t="s">
         <v>622</v>
       </c>
@@ -6493,10 +5973,6 @@
       <c r="B132" t="s">
         <v>625</v>
       </c>
-      <c r="D132" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E132" t="s">
         <v>627</v>
       </c>
@@ -6523,10 +5999,6 @@
       <c r="B133" t="s">
         <v>631</v>
       </c>
-      <c r="D133" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F133" t="s">
         <v>633</v>
       </c>
@@ -6550,10 +6022,6 @@
       <c r="B134" t="s">
         <v>637</v>
       </c>
-      <c r="D134" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E134" t="s">
         <v>639</v>
       </c>
@@ -6577,10 +6045,6 @@
       <c r="C135" t="s">
         <v>643</v>
       </c>
-      <c r="D135" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F135" t="s">
         <v>11</v>
       </c>
@@ -6601,10 +6065,6 @@
       <c r="C136" t="s">
         <v>647</v>
       </c>
-      <c r="D136" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F136" t="s">
         <v>648</v>
       </c>
@@ -6625,10 +6085,6 @@
       <c r="C137" t="s">
         <v>652</v>
       </c>
-      <c r="D137" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F137" t="s">
         <v>11</v>
       </c>
@@ -6649,10 +6105,6 @@
       <c r="C138" t="s">
         <v>656</v>
       </c>
-      <c r="D138" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F138" t="s">
         <v>11</v>
       </c>
@@ -6676,10 +6128,6 @@
       <c r="C139" t="s">
         <v>661</v>
       </c>
-      <c r="D139" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E139" t="s">
         <v>662</v>
       </c>
@@ -6706,10 +6154,6 @@
       <c r="C140" t="s">
         <v>666</v>
       </c>
-      <c r="D140" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E140" t="s">
         <v>667</v>
       </c>
@@ -6736,10 +6180,6 @@
       <c r="C141" t="s">
         <v>671</v>
       </c>
-      <c r="D141" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F141" t="s">
         <v>11</v>
       </c>
@@ -6763,10 +6203,6 @@
       <c r="C142" t="s">
         <v>675</v>
       </c>
-      <c r="D142" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E142" t="s">
         <v>676</v>
       </c>
@@ -6793,10 +6229,6 @@
       <c r="C143" t="s">
         <v>680</v>
       </c>
-      <c r="D143" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E143" t="s">
         <v>681</v>
       </c>
@@ -6823,10 +6255,6 @@
       <c r="C144" t="s">
         <v>455</v>
       </c>
-      <c r="D144" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E144" t="s">
         <v>685</v>
       </c>
@@ -6850,10 +6278,6 @@
       <c r="C145" t="s">
         <v>688</v>
       </c>
-      <c r="D145" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E145" t="s">
         <v>689</v>
       </c>
@@ -6874,10 +6298,6 @@
       <c r="C146" t="s">
         <v>692</v>
       </c>
-      <c r="D146" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E146" t="s">
         <v>693</v>
       </c>
@@ -6904,10 +6324,6 @@
       <c r="C147" t="s">
         <v>698</v>
       </c>
-      <c r="D147" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E147" t="s">
         <v>699</v>
       </c>
@@ -6934,10 +6350,6 @@
       <c r="C148" t="s">
         <v>703</v>
       </c>
-      <c r="D148" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E148" t="s">
         <v>704</v>
       </c>
@@ -6961,10 +6373,6 @@
       <c r="B149" t="s">
         <v>707</v>
       </c>
-      <c r="D149" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E149" t="s">
         <v>708</v>
       </c>
@@ -6985,10 +6393,6 @@
       <c r="C150" t="s">
         <v>711</v>
       </c>
-      <c r="D150" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E150" t="s">
         <v>712</v>
       </c>
@@ -7015,10 +6419,6 @@
       <c r="C151" t="s">
         <v>717</v>
       </c>
-      <c r="D151" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E151" t="s">
         <v>718</v>
       </c>
@@ -7042,10 +6442,6 @@
       <c r="C152" t="s">
         <v>722</v>
       </c>
-      <c r="D152" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E152" t="s">
         <v>723</v>
       </c>
@@ -7069,10 +6465,6 @@
       <c r="C153" t="s">
         <v>727</v>
       </c>
-      <c r="D153" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E153" t="s">
         <v>728</v>
       </c>
@@ -7096,9 +6488,6 @@
       <c r="C154" t="s">
         <v>732</v>
       </c>
-      <c r="D154">
-        <v>61</v>
-      </c>
       <c r="E154" t="s">
         <v>733</v>
       </c>
@@ -7122,9 +6511,6 @@
       <c r="C155" t="s">
         <v>737</v>
       </c>
-      <c r="D155">
-        <v>65</v>
-      </c>
       <c r="E155" t="s">
         <v>738</v>
       </c>
@@ -7148,10 +6534,6 @@
       <c r="C156" t="s">
         <v>742</v>
       </c>
-      <c r="D156" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E156" t="s">
         <v>743</v>
       </c>
@@ -7175,10 +6557,6 @@
       <c r="C157" t="s">
         <v>747</v>
       </c>
-      <c r="D157" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E157" t="s">
         <v>748</v>
       </c>
@@ -7193,10 +6571,6 @@
       <c r="C158" t="s">
         <v>750</v>
       </c>
-      <c r="D158" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E158" t="s">
         <v>751</v>
       </c>
@@ -7211,10 +6585,6 @@
       <c r="C159" t="s">
         <v>753</v>
       </c>
-      <c r="D159" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E159" t="s">
         <v>754</v>
       </c>
@@ -7238,10 +6608,6 @@
       <c r="C160" t="s">
         <v>758</v>
       </c>
-      <c r="D160" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F160" t="s">
         <v>759</v>
       </c>
@@ -7259,10 +6625,6 @@
       <c r="B161" t="s">
         <v>762</v>
       </c>
-      <c r="D161" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162">
@@ -7274,10 +6636,6 @@
       <c r="C162" t="s">
         <v>764</v>
       </c>
-      <c r="D162" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E162" t="s">
         <v>765</v>
       </c>
@@ -7301,10 +6659,6 @@
       <c r="C163" t="s">
         <v>769</v>
       </c>
-      <c r="D163" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E163" t="s">
         <v>770</v>
       </c>
@@ -7328,10 +6682,6 @@
       <c r="B164" t="s">
         <v>774</v>
       </c>
-      <c r="D164" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165">
@@ -7343,10 +6693,6 @@
       <c r="C165" t="s">
         <v>776</v>
       </c>
-      <c r="D165" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F165" t="s">
         <v>11</v>
       </c>
@@ -7370,10 +6716,6 @@
       <c r="C166" t="s">
         <v>781</v>
       </c>
-      <c r="D166" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F166" t="s">
         <v>11</v>
       </c>
@@ -7397,10 +6739,6 @@
       <c r="C167" t="s">
         <v>785</v>
       </c>
-      <c r="D167" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="F167" t="s">
         <v>53</v>
       </c>
@@ -7424,10 +6762,6 @@
       <c r="C168" t="s">
         <v>789</v>
       </c>
-      <c r="D168" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E168" t="s">
         <v>790</v>
       </c>
@@ -7454,10 +6788,6 @@
       <c r="C169" t="s">
         <v>795</v>
       </c>
-      <c r="D169" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E169" t="s">
         <v>796</v>
       </c>
@@ -7484,10 +6814,6 @@
       <c r="C170" t="s">
         <v>801</v>
       </c>
-      <c r="D170" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E170" t="s">
         <v>802</v>
       </c>
@@ -7511,10 +6837,6 @@
       <c r="C171" t="s">
         <v>805</v>
       </c>
-      <c r="D171" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E171" t="s">
         <v>806</v>
       </c>
@@ -7538,10 +6860,6 @@
       <c r="C172" t="s">
         <v>809</v>
       </c>
-      <c r="D172" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E172" t="s">
         <v>810</v>
       </c>
@@ -7565,10 +6883,6 @@
       <c r="C173" t="s">
         <v>813</v>
       </c>
-      <c r="D173" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E173" t="s">
         <v>814</v>
       </c>
@@ -7595,10 +6909,6 @@
       <c r="C174" t="s">
         <v>819</v>
       </c>
-      <c r="D174" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E174" t="s">
         <v>820</v>
       </c>
@@ -7622,10 +6932,6 @@
       <c r="C175" t="s">
         <v>824</v>
       </c>
-      <c r="D175" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="H175" t="s">
         <v>825</v>
       </c>
@@ -7643,10 +6949,6 @@
       <c r="C176" t="s">
         <v>828</v>
       </c>
-      <c r="D176" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="H176" t="s">
         <v>829</v>
       </c>
@@ -7664,10 +6966,6 @@
       <c r="C177" t="s">
         <v>831</v>
       </c>
-      <c r="D177" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E177" t="s">
         <v>832</v>
       </c>
@@ -7691,10 +6989,6 @@
       <c r="C178" t="s">
         <v>836</v>
       </c>
-      <c r="D178" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E178" t="s">
         <v>837</v>
       </c>
@@ -7721,10 +7015,6 @@
       <c r="C179" t="s">
         <v>843</v>
       </c>
-      <c r="D179" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
       <c r="E179" t="s">
         <v>844</v>
       </c>
@@ -7750,10 +7040,6 @@
       </c>
       <c r="C180" t="s">
         <v>849</v>
-      </c>
-      <c r="D180" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v>민증없음</v>
       </c>
       <c r="F180" t="s">
         <v>191</v>
